--- a/大一下/2024.3.21 周四晚 蔡金芳 太阳能电池实验 （99分）/作图.xlsx
+++ b/大一下/2024.3.21 周四晚 蔡金芳 太阳能电池实验 （99分）/作图.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\己用\龙的文档(北理)\大一下\物理实验\我自己的备份\2024.3.21 周四晚 太阳能电池实验\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\己用\龙的文档(北理)\物理实验github\大一下\2024.3.21 周四晚 蔡金芳 太阳能电池实验 （99分）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF0C079-67C2-477C-B8FD-64419888DD07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CD5AD8-A66F-45A3-A373-CBD887716BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{5468F8A0-6AF8-47F8-A46F-DD3A24423C73}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{5468F8A0-6AF8-47F8-A46F-DD3A24423C73}"/>
   </bookViews>
   <sheets>
     <sheet name="没有光源的条件下，测量硅光电池正向偏压时的伏安特性" sheetId="2" r:id="rId1"/>
@@ -854,7 +854,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -982,7 +982,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="zh-CN"/>
+                  <a:endParaRPr lang="en-US" altLang="zh-CN"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1178,7 +1178,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="zh-CN" altLang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1318,7 +1318,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="zh-CN" altLang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1480,7 +1480,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1881,7 +1881,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="zh-CN" altLang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2016,7 +2016,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="zh-CN" altLang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2866,7 +2866,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="zh-CN" altLang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4666,70 +4666,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="文本框 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E18E6F92-FE41-32B7-075D-B10962E11055}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4171950" y="3238500"/>
-          <a:ext cx="1130300" cy="247650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-            <a:t>作者：左逸龙</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>6</xdr:row>
@@ -4762,70 +4698,6 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>184150</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>654050</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="文本框 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{160B410D-8AEF-43B6-8323-FA24991D0172}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7016750" y="2571750"/>
-          <a:ext cx="1130300" cy="247650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-            <a:t>作者：左逸龙</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5452,12 +5324,12 @@
       <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5492,7 +5364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -5527,7 +5399,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -5591,9 +5463,9 @@
       <selection activeCell="V33" sqref="V33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -5709,7 +5581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5825,7 +5697,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -5941,7 +5813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -6094,7 +5966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
@@ -6102,7 +5974,7 @@
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
     </row>
-    <row r="8" spans="1:38" ht="17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -6137,7 +6009,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -6172,7 +6044,7 @@
         <v>4.59</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -6207,7 +6079,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -6252,7 +6124,7 @@
         <v>22.95</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -6284,7 +6156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -6316,7 +6188,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -6348,7 +6220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -6389,7 +6261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
@@ -6424,7 +6296,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -6459,7 +6331,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
@@ -6494,7 +6366,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -6539,7 +6411,7 @@
         <v>29.75</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -6571,7 +6443,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -6603,7 +6475,7 @@
         <v>3.86</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
@@ -6635,7 +6507,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
